--- a/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
+++ b/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
@@ -3205,14 +3205,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.6" customWidth="1"/>
     <col min="2" max="2" width="21.8" customWidth="1"/>
-    <col min="3" max="3" width="29.2" customWidth="1"/>
+    <col min="3" max="3" width="32.4" customWidth="1"/>
     <col min="4" max="4" width="35.9" customWidth="1"/>
     <col min="5" max="5" width="15.3" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>

--- a/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
+++ b/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
   <si>
     <t>t_security_appkey</t>
   </si>
@@ -626,6 +626,34 @@
     <t>没有传入executor参数</t>
   </si>
   <si>
+    <t>当前授权方法正常维护中</t>
+  </si>
+  <si>
+    <t>对授权方法采取关闭状态,当前授权方法无法提供访问</t>
+  </si>
+  <si>
+    <t>需要在安全管理后台中设置授权方法拦截策略</t>
+  </si>
+  <si>
+    <t>接口开发者</t>
+  </si>
+  <si>
+    <t>安全管理后台</t>
+  </si>
+  <si>
+    <t>频繁调用接口,请明天再试</t>
+  </si>
+  <si>
+    <t>当前appkey本日访问次数限制超过了appKey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1.如果Appkey每日访问次数设置不恰当,增加AppKey每日允许访问次数
+</t>
+  </si>
+  <si>
+    <t>S2.清除当前appKey访问统计内容</t>
+  </si>
+  <si>
     <t>签名错误</t>
   </si>
   <si>
@@ -633,21 +661,6 @@
   </si>
   <si>
     <t>使用正确的签名数据</t>
-  </si>
-  <si>
-    <t>当前授权方法正常维护中</t>
-  </si>
-  <si>
-    <t>对授权方法采取关闭状态,当前授权方法无法提供访问</t>
-  </si>
-  <si>
-    <t>需要在安全管理后台中设置授权方法拦截策略</t>
-  </si>
-  <si>
-    <t>接口开发者</t>
-  </si>
-  <si>
-    <t>安全管理后台</t>
   </si>
 </sst>
 </file>
@@ -1405,6 +1418,11 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3205,7 +3223,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -3213,7 +3231,7 @@
     <col min="1" max="1" width="10.6" customWidth="1"/>
     <col min="2" max="2" width="21.8" customWidth="1"/>
     <col min="3" max="3" width="32.4" customWidth="1"/>
-    <col min="4" max="4" width="35.9" customWidth="1"/>
+    <col min="4" max="4" width="53.1" customWidth="1"/>
     <col min="5" max="5" width="15.3" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
   </cols>
@@ -3462,26 +3480,6 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2">
-        <v>9031</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="15" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
@@ -3491,30 +3489,38 @@
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3">
-        <v>9016</v>
+      <c r="A16" s="2">
+        <v>9017</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3">
+        <v>9018</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
@@ -3522,12 +3528,16 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>9019</v>
+      </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -3623,12 +3633,24 @@
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="A31" s="2">
+        <v>9031</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="3"/>

--- a/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
+++ b/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
   <si>
     <t>t_security_appkey</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>如何解决</t>
+  </si>
+  <si>
+    <t>隐含提示语(data)</t>
   </si>
   <si>
     <t>何人处理该问题</t>
@@ -652,6 +655,28 @@
   </si>
   <si>
     <t>S2.清除当前appKey访问统计内容</t>
+  </si>
+  <si>
+    <t>S3.确定是否是正常限制</t>
+  </si>
+  <si>
+    <t>频繁调用接口,请在%s后再试</t>
+  </si>
+  <si>
+    <t>当前appKey接口调用频率收到限制</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1.如果Appkey访问频率设置不恰当,增加AppKey允许访问频率
+</t>
+  </si>
+  <si>
+    <t>当日appKey访问频率已经被限制, 限制等级是%d</t>
+  </si>
+  <si>
+    <t>S2.清除当前appKey每分钟访问次数</t>
+  </si>
+  <si>
+    <t>当前appkey+id本日访问次数限制超过了appKey+id设置</t>
   </si>
   <si>
     <t>签名错误</t>
@@ -3218,25 +3243,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10.6" customWidth="1"/>
     <col min="2" max="2" width="21.8" customWidth="1"/>
-    <col min="3" max="3" width="32.4" customWidth="1"/>
+    <col min="3" max="3" width="40.1" customWidth="1"/>
     <col min="4" max="4" width="53.1" customWidth="1"/>
-    <col min="5" max="5" width="15.3" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="5" max="5" width="28.6" customWidth="1"/>
+    <col min="6" max="6" width="15.3" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
@@ -3255,410 +3281,525 @@
       <c r="F1" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>9000</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>9001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>9001</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>180</v>
       </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>9001</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>180</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>9002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>9004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>9005</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>9006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9008</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>9008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>173</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2">
         <v>9008</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>9015</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>173</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G13" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="2">
         <v>9017</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="E16" s="3" t="s">
         <v>206</v>
       </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>9018</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3">
-        <v>9019</v>
-      </c>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3">
+        <v>9018</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3">
+        <v>9019</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>219</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="2">
-        <v>9031</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2">
+        <v>9031</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
+++ b/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
   <si>
     <t>t_security_appkey</t>
   </si>
@@ -650,33 +650,53 @@
     <t>当前appkey本日访问次数限制超过了appKey</t>
   </si>
   <si>
-    <t xml:space="preserve">S1.如果Appkey每日访问次数设置不恰当,增加AppKey每日允许访问次数
-</t>
-  </si>
-  <si>
-    <t>S2.清除当前appKey访问统计内容</t>
-  </si>
-  <si>
-    <t>S3.确定是否是正常限制</t>
+    <t>S1.是否是正常限制</t>
+  </si>
+  <si>
+    <t>S2.如果设置不当,增加appKey访问频率</t>
+  </si>
+  <si>
+    <t>S3.清除当前appKey访问统计</t>
   </si>
   <si>
     <t>频繁调用接口,请在%s后再试</t>
   </si>
   <si>
-    <t>当前appKey接口调用频率收到限制</t>
+    <t>当前appKey接口调用频率受到限制</t>
+  </si>
+  <si>
+    <t>当日appKey访问频率已经被限制, 限制等级是%d</t>
+  </si>
+  <si>
+    <t>当前appkey+id接口调用频率受到限制</t>
+  </si>
+  <si>
+    <t>S2.如果设置不当,增加appKey+id访问频率</t>
+  </si>
+  <si>
+    <t>S3.清除当前appKey+id访问统计</t>
+  </si>
+  <si>
+    <t>当前appkey+ip本日访问次数限制超过了appKey+ip设置</t>
+  </si>
+  <si>
+    <t>S2.如果设置不当,增加appKey+ip访问频率</t>
+  </si>
+  <si>
+    <t>S3.清除当前appKey+ip访问统计</t>
+  </si>
+  <si>
+    <t>当前appkey+ip接口调用频率受到限制</t>
   </si>
   <si>
     <t xml:space="preserve">S1.如果Appkey访问频率设置不恰当,增加AppKey允许访问频率
 </t>
   </si>
   <si>
-    <t>当日appKey访问频率已经被限制, 限制等级是%d</t>
-  </si>
-  <si>
     <t>S2.清除当前appKey每分钟访问次数</t>
   </si>
   <si>
-    <t>当前appkey+id本日访问次数限制超过了appKey+id设置</t>
+    <t>S3.确定是否是正常限制</t>
   </si>
   <si>
     <t>签名错误</t>
@@ -3243,12 +3263,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3605,10 +3625,10 @@
         <v>215</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>207</v>
@@ -3622,7 +3642,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3640,79 +3660,127 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="A23" s="3">
+        <v>9019</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>218</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3">
-        <v>9019</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="A26" s="3">
+        <v>9020</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>221</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>222</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="A29" s="3">
+        <v>9020</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>225</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3721,7 +3789,9 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3736,13 +3806,25 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="A33" s="2">
+        <v>9031</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="F33" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3"/>
@@ -3753,54 +3835,6 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="2">
-        <v>9031</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
+++ b/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
   <si>
     <t>t_security_appkey</t>
   </si>
@@ -557,7 +557,7 @@
     <t>缓存中没有当前appKey的值</t>
   </si>
   <si>
-    <t>需要在安全管理后台增加当前appkey缓存(换个key)</t>
+    <t>需要在安全管理后台增加当前appkey缓存</t>
   </si>
   <si>
     <t>接口开发者(调用者)</t>
@@ -575,6 +575,18 @@
     <t>需要在安全管理后台开启当前appkey使用(换个key)</t>
   </si>
   <si>
+    <t>当前appKey数据使用期限已过</t>
+  </si>
+  <si>
+    <t>当前appKey数据使用期限大于当前时间</t>
+  </si>
+  <si>
+    <t>判断是否是正常appKey到期(不是正常到期去管理后台做appKey修改)</t>
+  </si>
+  <si>
+    <t>查看appKey开启时间是否大于当前时间或appKey启用状态设置为未启用</t>
+  </si>
+  <si>
     <t>请传入timestamp参数</t>
   </si>
   <si>
@@ -596,7 +608,7 @@
     <t>signMethod参数错误</t>
   </si>
   <si>
-    <t>传入的signMethod参数错误</t>
+    <t>目前只有md5或hmac</t>
   </si>
   <si>
     <t>禁止相同的时间戳重复使用</t>
@@ -611,7 +623,7 @@
     <t>时间戳参数错误</t>
   </si>
   <si>
-    <t>时间戳参数小于等于0</t>
+    <t>时间戳参数小于等于0或时间戳不是数字</t>
   </si>
   <si>
     <t>时间戳使用大于0的数字</t>
@@ -697,6 +709,15 @@
   </si>
   <si>
     <t>S3.确定是否是正常限制</t>
+  </si>
+  <si>
+    <t>免登陆AppKey必须手动传入IP数据</t>
+  </si>
+  <si>
+    <t>appKey属于免登陆,那么必须手动传入参数ip数据</t>
+  </si>
+  <si>
+    <t>手动传入调动接口的ip</t>
   </si>
   <si>
     <t>签名错误</t>
@@ -718,10 +739,33 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1203,186 +1247,207 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyProtection="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
@@ -1391,10 +1456,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
@@ -1798,7 +1863,7 @@
     <col min="2" max="2" width="29.3733333333333" customWidth="1"/>
     <col min="3" max="3" width="30.8733333333333" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="27.3733333333333" style="5" customWidth="1"/>
+    <col min="5" max="6" width="27.3733333333333" style="12" customWidth="1"/>
     <col min="7" max="7" width="23.2533333333333" customWidth="1"/>
     <col min="8" max="8" width="17.7533333333333" customWidth="1"/>
   </cols>
@@ -1810,7 +1875,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1827,10 +1892,10 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
@@ -1850,7 +1915,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1867,10 +1932,10 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1887,10 +1952,10 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1907,15 +1972,15 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -1927,50 +1992,50 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:6">
-      <c r="A8" s="7" t="s">
+    <row r="8" s="11" customFormat="1" spans="1:6">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="11" customFormat="1" spans="1:6">
+      <c r="A9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2018,10 +2083,10 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
@@ -2041,10 +2106,10 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2061,7 +2126,7 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2078,7 +2143,7 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2089,7 +2154,7 @@
       <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G17" t="s">
@@ -2097,7 +2162,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
@@ -2109,7 +2174,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2126,10 +2191,10 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2146,10 +2211,10 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="5">
+      <c r="E20" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
@@ -2166,10 +2231,10 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
@@ -2186,10 +2251,10 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="12">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
@@ -2219,7 +2284,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
@@ -2233,7 +2298,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
@@ -2245,10 +2310,10 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="12" t="s">
         <v>82</v>
       </c>
       <c r="G27" t="s">
@@ -2256,24 +2321,24 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="5">
+      <c r="E28" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B29" t="s">
@@ -2282,13 +2347,13 @@
       <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="16" t="s">
+      <c r="E29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="23" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
@@ -2308,10 +2373,10 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="5">
+      <c r="E30" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="12">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
@@ -2331,10 +2396,10 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="12">
         <v>-1</v>
       </c>
       <c r="G31" t="s">
@@ -2356,16 +2421,16 @@
       <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="13" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="16"/>
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -2383,10 +2448,10 @@
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="16" t="s">
+      <c r="E36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2403,10 +2468,10 @@
       <c r="D37" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="16" t="s">
+      <c r="E37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2417,17 +2482,17 @@
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="16"/>
       <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="5">
+      <c r="E38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="12">
         <v>1</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="16" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2438,14 +2503,14 @@
       <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="E39" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2456,13 +2521,13 @@
       <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="9"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
@@ -2471,56 +2536,56 @@
       <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="10"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="16" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="13"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="14" t="s">
+      <c r="H44" s="21" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C45" t="s">
@@ -2529,62 +2594,62 @@
       <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="18" t="s">
+      <c r="F45" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="14"/>
+      <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="E46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="14"/>
+      <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="12">
+      <c r="E47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="19">
         <v>0</v>
       </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="14"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B48" t="s">
@@ -2593,19 +2658,19 @@
       <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="16" t="s">
+      <c r="E48" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H48" s="14"/>
+      <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
@@ -2620,14 +2685,14 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="12">
+      <c r="E49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="19">
         <v>-1</v>
       </c>
-      <c r="G49" s="9"/>
-      <c r="H49" s="14"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
@@ -2642,14 +2707,14 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E50" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="19">
         <v>-1</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="14"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
@@ -2661,12 +2726,12 @@
       <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="14"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="21"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
@@ -2685,31 +2750,31 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="E55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="9"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C56" t="s">
@@ -2718,56 +2783,56 @@
       <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="12" t="s">
+      <c r="E56" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="9"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="12" t="s">
+      <c r="E57" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="9"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="13" t="s">
         <v>84</v>
       </c>
       <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="12">
+      <c r="E58" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="19">
         <v>0</v>
       </c>
-      <c r="G58" s="9"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B59" t="s">
@@ -2776,16 +2841,16 @@
       <c r="C59" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="16" t="s">
+      <c r="E59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="9"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
@@ -2800,10 +2865,10 @@
       <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="5">
+      <c r="E60" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="12">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
@@ -2817,7 +2882,7 @@
       <c r="B61" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2841,31 +2906,31 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="16" t="s">
         <v>112</v>
       </c>
       <c r="C65" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="16" t="s">
+      <c r="E65" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="9"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="16" t="s">
         <v>116</v>
       </c>
       <c r="C66" t="s">
@@ -2874,37 +2939,37 @@
       <c r="D66" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="16" t="s">
+      <c r="E66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="9"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="16" t="s">
+      <c r="E67" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="9"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B68" t="s">
@@ -2913,19 +2978,19 @@
       <c r="C68" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="16" t="s">
+      <c r="E68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="9"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="13" t="s">
         <v>86</v>
       </c>
       <c r="B69" t="s">
@@ -2934,16 +2999,16 @@
       <c r="C69" t="s">
         <v>88</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="5">
+      <c r="E69" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="12">
         <v>0</v>
       </c>
-      <c r="G69" s="9"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -2952,13 +3017,13 @@
       <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="16" t="s">
+      <c r="E70" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2969,13 +3034,13 @@
       <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="E71" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2986,13 +3051,13 @@
       <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="5" t="s">
+      <c r="E72" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3019,13 +3084,13 @@
       <c r="B76" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="16" t="s">
+      <c r="E76" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3036,13 +3101,13 @@
       <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="16" t="s">
+      <c r="E77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3053,13 +3118,13 @@
       <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="16" t="s">
+      <c r="E78" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3070,13 +3135,13 @@
       <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="16" t="s">
+      <c r="E79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="23" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3087,13 +3152,13 @@
       <c r="B80" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="5" t="s">
+      <c r="E80" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3104,16 +3169,16 @@
       <c r="B81" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="5">
+      <c r="E81" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="12">
         <v>1</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="G81" s="16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3127,7 +3192,7 @@
       <c r="D82" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3138,24 +3203,24 @@
       <c r="B83" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="5">
+      <c r="E83" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="12">
         <v>1</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="G83" s="16" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="13" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3166,7 +3231,7 @@
       <c r="B86" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3180,10 +3245,10 @@
       <c r="D87" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="15">
+      <c r="E87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="22">
         <v>0</v>
       </c>
     </row>
@@ -3197,10 +3262,10 @@
       <c r="D88" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="5">
+      <c r="E88" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3211,13 +3276,13 @@
       <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="9" t="s">
+      <c r="D89" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="5">
+      <c r="E89" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="12">
         <v>0</v>
       </c>
     </row>
@@ -3231,10 +3296,10 @@
       <c r="D90" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="E90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3263,12 +3328,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3282,558 +3347,668 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
+    <row r="2" s="1" customFormat="1" spans="1:7">
+      <c r="A2" s="4">
         <v>9000</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:7">
+      <c r="A4" s="4">
         <v>9001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="4">
         <v>9001</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
+    <row r="6" spans="1:7">
+      <c r="A6" s="7">
         <v>9001</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="4">
+        <v>9001</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>9001</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="4">
         <v>9002</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
+    <row r="12" s="2" customFormat="1" spans="1:7">
+      <c r="A12" s="9">
         <v>9004</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="B12" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
+    <row r="13" s="2" customFormat="1" spans="1:7">
+      <c r="A13" s="9">
         <v>9005</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
+      <c r="B13" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
+    <row r="14" s="2" customFormat="1" spans="1:7">
+      <c r="A14" s="9">
         <v>9006</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
+      <c r="B14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G14" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
+    <row r="15" s="2" customFormat="1" spans="1:7">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="1:7">
+      <c r="A16" s="9">
         <v>9008</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
+      <c r="B16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
+    <row r="17" s="2" customFormat="1" spans="1:7">
+      <c r="A17" s="9">
         <v>9008</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
+      <c r="B17" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G17" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
+    <row r="18" s="2" customFormat="1" spans="1:7">
+      <c r="A18" s="9">
         <v>9008</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
+      <c r="B18" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G18" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3">
-        <v>9015</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+    <row r="19" s="2" customFormat="1" spans="1:7">
+      <c r="A19" s="9">
+        <v>9016</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G19" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
+    <row r="21" spans="1:7">
+      <c r="A21" s="7">
         <v>9017</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="3">
+      <c r="C21" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
         <v>9018</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="B22" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3" t="s">
+      <c r="G22" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3">
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
         <v>9018</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B25" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E25" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="G25" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>9019</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="3">
-        <v>9019</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D23" s="3" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>9020</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="G31" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8">
+        <v>9020</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3">
-        <v>9020</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="C34" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F34" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="3">
-        <v>9020</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2">
+      <c r="G34" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="1:7">
+      <c r="A39" s="9">
+        <v>9030</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="7">
         <v>9031</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3" t="s">
+      <c r="B41" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G41" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
+++ b/41_qds/51_项目内容/10_安全项目/安全项目系统返回信息解说v1.0.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>t_security_appkey</t>
   </si>
@@ -639,6 +639,12 @@
   </si>
   <si>
     <t>没有传入executor参数</t>
+  </si>
+  <si>
+    <t>用户Id解密发生错误</t>
+  </si>
+  <si>
+    <t>即传入的数据内容无法解析成为数字</t>
   </si>
   <si>
     <t>当前授权方法正常维护中</t>
@@ -739,16 +745,8 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="24">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -758,14 +756,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1247,169 +1237,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1417,37 +1404,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
@@ -1456,10 +1437,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
@@ -1863,7 +1844,7 @@
     <col min="2" max="2" width="29.3733333333333" customWidth="1"/>
     <col min="3" max="3" width="30.8733333333333" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="6" width="27.3733333333333" style="12" customWidth="1"/>
+    <col min="5" max="6" width="27.3733333333333" style="9" customWidth="1"/>
     <col min="7" max="7" width="23.2533333333333" customWidth="1"/>
     <col min="8" max="8" width="17.7533333333333" customWidth="1"/>
   </cols>
@@ -1875,7 +1856,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1892,10 +1873,10 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
@@ -1915,7 +1896,7 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1932,10 +1913,10 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1952,10 +1933,10 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="23" t="s">
+      <c r="E5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1972,15 +1953,15 @@
       <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="E6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B7" t="s">
@@ -1992,50 +1973,50 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" spans="1:6">
-      <c r="A8" s="14" t="s">
+    <row r="8" s="8" customFormat="1" spans="1:6">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="24" t="s">
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" s="11" customFormat="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="8" customFormat="1" spans="1:6">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2083,10 +2064,10 @@
       <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="E12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="9">
         <v>0</v>
       </c>
       <c r="G12" t="s">
@@ -2106,10 +2087,10 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="12" t="s">
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2126,7 +2107,7 @@
       <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2143,7 +2124,7 @@
       <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2154,7 +2135,7 @@
       <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>63</v>
       </c>
       <c r="G17" t="s">
@@ -2162,7 +2143,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B18" t="s">
@@ -2174,7 +2155,7 @@
       <c r="D18" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2191,10 +2172,10 @@
       <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="E19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="9">
         <v>0</v>
       </c>
     </row>
@@ -2211,10 +2192,10 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="9">
         <v>-1</v>
       </c>
       <c r="G20" t="s">
@@ -2231,10 +2212,10 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="12">
+      <c r="E21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="9">
         <v>-1</v>
       </c>
       <c r="G21" t="s">
@@ -2251,10 +2232,10 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="E22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="9">
         <v>-1</v>
       </c>
       <c r="G22" t="s">
@@ -2284,7 +2265,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B26" t="s">
@@ -2298,7 +2279,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
@@ -2310,10 +2291,10 @@
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="12" t="s">
+      <c r="E27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>82</v>
       </c>
       <c r="G27" t="s">
@@ -2321,24 +2302,24 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="12">
+      <c r="E28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B29" t="s">
@@ -2347,13 +2328,13 @@
       <c r="C29" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="23" t="s">
+      <c r="E29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
@@ -2373,10 +2354,10 @@
       <c r="D30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="12">
+      <c r="E30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="9">
         <v>-1</v>
       </c>
       <c r="G30" t="s">
@@ -2396,10 +2377,10 @@
       <c r="D31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="12">
+      <c r="E31" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="9">
         <v>-1</v>
       </c>
       <c r="G31" t="s">
@@ -2421,16 +2402,16 @@
       <c r="A34" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="16"/>
+      <c r="C34" s="13"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="10" t="s">
         <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>96</v>
       </c>
-      <c r="C35" s="16"/>
+      <c r="C35" s="13"/>
       <c r="D35" t="s">
         <v>6</v>
       </c>
@@ -2448,10 +2429,10 @@
       <c r="D36" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="23" t="s">
+      <c r="E36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2468,10 +2449,10 @@
       <c r="D37" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="23" t="s">
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2482,17 +2463,17 @@
       <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="16"/>
+      <c r="C38" s="13"/>
       <c r="D38" t="s">
         <v>23</v>
       </c>
-      <c r="E38" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F38" s="12">
+      <c r="E38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="9">
         <v>1</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="13" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2503,14 +2484,14 @@
       <c r="B39" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="12" t="s">
+      <c r="E39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2521,13 +2502,13 @@
       <c r="B40" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16" t="s">
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="16"/>
+      <c r="C41" s="13"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
@@ -2536,56 +2517,56 @@
       <c r="B42" t="s">
         <v>109</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>111</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C44" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="25" t="s">
+      <c r="F44" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="21" t="s">
+      <c r="H44" s="18" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C45" t="s">
@@ -2594,62 +2575,62 @@
       <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="25" t="s">
+      <c r="F45" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="16" t="s">
+      <c r="G45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H45" s="21"/>
+      <c r="H45" s="18"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C46" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="25" t="s">
+      <c r="F46" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H46" s="21"/>
+      <c r="H46" s="18"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="16" t="s">
+      <c r="D47" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="19">
+      <c r="E47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="16">
         <v>0</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="21"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="18"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B48" t="s">
@@ -2658,19 +2639,19 @@
       <c r="C48" t="s">
         <v>88</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="23" t="s">
+      <c r="E48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="H48" s="21"/>
+      <c r="H48" s="18"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
@@ -2685,14 +2666,14 @@
       <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="19">
+      <c r="E49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16">
         <v>-1</v>
       </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="21"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="18"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
@@ -2707,14 +2688,14 @@
       <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="19">
+      <c r="E50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="16">
         <v>-1</v>
       </c>
-      <c r="G50" s="16"/>
-      <c r="H50" s="21"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="18"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
@@ -2726,12 +2707,12 @@
       <c r="C51" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="16" t="s">
+      <c r="D51" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F51" s="19"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="21"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="18"/>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
@@ -2750,31 +2731,31 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="16" t="s">
+      <c r="D55" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" s="19" t="s">
+      <c r="E55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C56" t="s">
@@ -2783,56 +2764,56 @@
       <c r="D56" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F56" s="19" t="s">
+      <c r="E56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="G56" s="16"/>
+      <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C57" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="16" t="s">
+      <c r="D57" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E57" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="19" t="s">
+      <c r="E57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="G57" s="16"/>
+      <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B58" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16" t="s">
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" s="19">
+      <c r="E58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="16">
         <v>0</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B59" t="s">
@@ -2841,16 +2822,16 @@
       <c r="C59" t="s">
         <v>88</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="23" t="s">
+      <c r="E59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="16"/>
+      <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
@@ -2865,10 +2846,10 @@
       <c r="D60" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="12">
+      <c r="E60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="9">
         <v>-1</v>
       </c>
       <c r="G60" t="s">
@@ -2882,7 +2863,7 @@
       <c r="B61" t="s">
         <v>131</v>
       </c>
-      <c r="D61" s="16" t="s">
+      <c r="D61" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2906,31 +2887,31 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="13" t="s">
         <v>112</v>
       </c>
       <c r="C65" t="s">
         <v>113</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E65" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="23" t="s">
+      <c r="E65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="16"/>
+      <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="13" t="s">
         <v>116</v>
       </c>
       <c r="C66" t="s">
@@ -2939,37 +2920,37 @@
       <c r="D66" t="s">
         <v>18</v>
       </c>
-      <c r="E66" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="23" t="s">
+      <c r="E66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="16"/>
+      <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C67" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E67" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F67" s="23" t="s">
+      <c r="E67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="16"/>
+      <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="10" t="s">
         <v>136</v>
       </c>
       <c r="B68" t="s">
@@ -2978,19 +2959,19 @@
       <c r="C68" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="16" t="s">
+      <c r="D68" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E68" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68" s="23" t="s">
+      <c r="E68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="16"/>
+      <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="10" t="s">
         <v>86</v>
       </c>
       <c r="B69" t="s">
@@ -2999,16 +2980,16 @@
       <c r="C69" t="s">
         <v>88</v>
       </c>
-      <c r="D69" s="16" t="s">
+      <c r="D69" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="12">
+      <c r="E69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="9">
         <v>0</v>
       </c>
-      <c r="G69" s="16"/>
+      <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
@@ -3017,13 +2998,13 @@
       <c r="B70" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F70" s="23" t="s">
+      <c r="E70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3034,13 +3015,13 @@
       <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E71" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="12" t="s">
+      <c r="E71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3051,13 +3032,13 @@
       <c r="B72" t="s">
         <v>143</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="D72" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E72" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="12" t="s">
+      <c r="E72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3084,13 +3065,13 @@
       <c r="B76" t="s">
         <v>146</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E76" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" s="23" t="s">
+      <c r="E76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3101,13 +3082,13 @@
       <c r="B77" t="s">
         <v>148</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" s="23" t="s">
+      <c r="E77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3118,13 +3099,13 @@
       <c r="B78" t="s">
         <v>150</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" s="23" t="s">
+      <c r="E78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3135,13 +3116,13 @@
       <c r="B79" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" s="23" t="s">
+      <c r="E79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="20" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3152,13 +3133,13 @@
       <c r="B80" t="s">
         <v>49</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E80" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" s="12" t="s">
+      <c r="E80" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3169,16 +3150,16 @@
       <c r="B81" t="s">
         <v>45</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E81" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="12">
+      <c r="E81" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="9">
         <v>1</v>
       </c>
-      <c r="G81" s="16" t="s">
+      <c r="G81" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3192,7 +3173,7 @@
       <c r="D82" t="s">
         <v>55</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3203,24 +3184,24 @@
       <c r="B83" t="s">
         <v>157</v>
       </c>
-      <c r="D83" s="16" t="s">
+      <c r="D83" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83" s="12">
+      <c r="E83" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="9">
         <v>1</v>
       </c>
-      <c r="G83" s="16" t="s">
+      <c r="G83" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3231,7 +3212,7 @@
       <c r="B86" t="s">
         <v>161</v>
       </c>
-      <c r="D86" s="16" t="s">
+      <c r="D86" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3245,10 +3226,10 @@
       <c r="D87" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F87" s="22">
+      <c r="E87" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="19">
         <v>0</v>
       </c>
     </row>
@@ -3262,10 +3243,10 @@
       <c r="D88" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F88" s="12">
+      <c r="E88" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3276,13 +3257,13 @@
       <c r="B89" t="s">
         <v>27</v>
       </c>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E89" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F89" s="12">
+      <c r="E89" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="9">
         <v>0</v>
       </c>
     </row>
@@ -3296,10 +3277,10 @@
       <c r="D90" t="s">
         <v>39</v>
       </c>
-      <c r="E90" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F90" s="12" t="s">
+      <c r="E90" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3328,12 +3309,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="6"/>
@@ -3347,7 +3328,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>166</v>
       </c>
@@ -3370,7 +3351,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" s="2" customFormat="1" spans="1:7">
       <c r="A2" s="4">
         <v>9000</v>
       </c>
@@ -3380,8 +3361,8 @@
       <c r="C2" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="5" t="s">
         <v>174</v>
       </c>
@@ -3389,16 +3370,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:7">
+    <row r="3" s="2" customFormat="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:7">
       <c r="A4" s="4">
         <v>9001</v>
       </c>
@@ -3408,8 +3389,8 @@
       <c r="C4" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="5" t="s">
         <v>174</v>
       </c>
@@ -3417,7 +3398,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+    <row r="5" s="2" customFormat="1" spans="1:7">
       <c r="A5" s="4">
         <v>9001</v>
       </c>
@@ -3430,7 +3411,7 @@
       <c r="D5" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="5" t="s">
         <v>181</v>
       </c>
@@ -3438,28 +3419,28 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7">
+    <row r="6" s="2" customFormat="1" spans="1:7">
+      <c r="A6" s="4">
         <v>9001</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:7">
+    <row r="7" s="2" customFormat="1" spans="1:7">
       <c r="A7" s="4">
         <v>9001</v>
       </c>
@@ -3472,15 +3453,15 @@
       <c r="D7" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" s="2" customFormat="1" spans="1:7">
       <c r="A8" s="4">
         <v>9001</v>
       </c>
@@ -3493,7 +3474,7 @@
       <c r="D8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="5" t="s">
         <v>181</v>
       </c>
@@ -3501,25 +3482,25 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:7">
+    <row r="9" s="2" customFormat="1" spans="1:7">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:7">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:7">
       <c r="A11" s="4">
         <v>9002</v>
       </c>
@@ -3529,8 +3510,8 @@
       <c r="C11" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
         <v>174</v>
       </c>
@@ -3539,476 +3520,493 @@
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:7">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>9004</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:7">
-      <c r="A13" s="9">
+      <c r="A13" s="4">
         <v>9005</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:7">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>9006</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:7">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>9008</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:7">
-      <c r="A17" s="9">
+      <c r="A17" s="4">
         <v>9008</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" s="2" customFormat="1" spans="1:7">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>9008</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" spans="1:7">
-      <c r="A19" s="9">
+      <c r="A19" s="4">
         <v>9016</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="7">
+    <row r="20" s="2" customFormat="1" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>9017</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="8">
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7">
         <v>9018</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="G23" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="7">
+        <v>9018</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="8">
-        <v>9018</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="E26" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="8" t="s">
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="7">
+        <v>9019</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="8">
-        <v>9019</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="8" t="s">
+      <c r="E29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="7">
+        <v>9020</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F28" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
+      <c r="C32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="7">
+        <v>9020</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="8">
-        <v>9020</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8">
-        <v>9020</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="F35" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-    </row>
-    <row r="39" s="2" customFormat="1" spans="1:7">
-      <c r="A39" s="9">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="1:7">
+      <c r="A40" s="4">
         <v>9030</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="B40" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="10" t="s">
+      <c r="C40" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="G39" s="10" t="s">
+      <c r="G40" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-    </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="7">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6">
         <v>9031</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8" t="s">
+      <c r="C42" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G42" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+    <row r="43" spans="1:7">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
